--- a/Documentation/NHAIRI_TPI_PlanDeTests_Web.xlsx
+++ b/Documentation/NHAIRI_TPI_PlanDeTests_Web.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Numéro test</t>
   </si>
@@ -39,6 +39,106 @@
   </si>
   <si>
     <t>Ilias N'hairi</t>
+  </si>
+  <si>
+    <t>Se rendre sur la page index.php puis cliquer sur inscription</t>
+  </si>
+  <si>
+    <t>La page d'inscription doit s'ouvrir</t>
+  </si>
+  <si>
+    <t>La page index.php s'affiche avec un message de confirmation de création de compte</t>
+  </si>
+  <si>
+    <t>Créer le compte test avec le mot de passe "Super" qu'il faudrai confirmer</t>
+  </si>
+  <si>
+    <t>Se connecter sur la page index.php avec le compte "Demo" avec le mot de passe "Super"</t>
+  </si>
+  <si>
+    <t>L'utilisateur doit être redirigé sur la page contenant ses playlists (il doit y en avoir 2)</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur la première playlist "Demo"</t>
+  </si>
+  <si>
+    <t>Une page avec deux musiques s'affiche</t>
+  </si>
+  <si>
+    <t>L'utilisateur change le parametre "id" dans le lien en "1" (playlist d'un autre utilisateur)</t>
+  </si>
+  <si>
+    <t>L'utilisateur n'a pas accès il est redirigé</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur "Déconnexion"</t>
+  </si>
+  <si>
+    <t>Il est redirigé sur la page de connexion</t>
+  </si>
+  <si>
+    <t>L'utilisateur est redirigé sur la page admin.php</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur "Gérer les utilisateurs"</t>
+  </si>
+  <si>
+    <t>La liste des utilisateurs s'affiche</t>
+  </si>
+  <si>
+    <t>Cliquer sur "Consulter" à coté de l'utilisateur "Demo"</t>
+  </si>
+  <si>
+    <t>Les 2 playlists de l'utilisateur s'affichent</t>
+  </si>
+  <si>
+    <t>Cliquer sur "consulter" à coté de la playlist "demo"</t>
+  </si>
+  <si>
+    <t>Une liste avec deux musiques doit s'afficher</t>
+  </si>
+  <si>
+    <t>Cliquer sur "back" du navigateur. Sélectionner les deux playlists et cliquer sur "Supprimer les playlists sélectionnées". Après la redirection cliquer sur "Consulter" à coté de l'utilisateur demo</t>
+  </si>
+  <si>
+    <t>Il ne doit plus y avoir de playlists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur "Supprimer 'Demo'" </t>
+  </si>
+  <si>
+    <t>Après la redirection sur la page de gestion des utilisateurs l'utilisateur "Demo" ne doit plus y être.</t>
+  </si>
+  <si>
+    <t>Selectionner l'utilisateur "Ilias" puis cliquer sur "Supprimer les utilisateurs sélectionnés"</t>
+  </si>
+  <si>
+    <t>L'utilisateur "Ilias" ne doit plus se trouver dans la liste</t>
+  </si>
+  <si>
+    <t>Cliquer sur "Administration" puis sur "Ajouter un titre" remplissez les champs avec les informations d'une musique et fournissez le fichier .mp3</t>
+  </si>
+  <si>
+    <t>La page administration doit s'afficher sans erreur et la musique doit être ajoutée dans la base de données. Le fichier doit avoir été sauvé dans le dossier "Music" avec un nom unique.</t>
+  </si>
+  <si>
+    <t>L'administrateur clique sur "Déconnexion"</t>
+  </si>
+  <si>
+    <t>L'utilisateur doit être redirigé sur la page de connexion</t>
+  </si>
+  <si>
+    <t>Se connecter avec le compte "Admin" avec le mot de passe "Super"</t>
+  </si>
+  <si>
+    <t>Se connecter avec le compte "test" avec le mot de passe super puis essayer d'acceder aux pages :
+admin.php
+manageUsers.php
+ManageUser.php
+addTitle.php</t>
+  </si>
+  <si>
+    <t>L'utilisateur doit toujours être redirigé vers la page user.php</t>
   </si>
 </sst>
 </file>
@@ -62,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -244,11 +344,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -314,6 +453,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,8 +781,12 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
@@ -640,8 +795,12 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
@@ -650,8 +809,12 @@
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
@@ -660,8 +823,12 @@
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
@@ -670,8 +837,12 @@
       <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
@@ -680,8 +851,12 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
@@ -690,8 +865,12 @@
       <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
@@ -700,8 +879,12 @@
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
@@ -710,8 +893,12 @@
       <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
@@ -720,8 +907,12 @@
       <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
@@ -730,8 +921,12 @@
       <c r="D14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
@@ -740,8 +935,12 @@
       <c r="D15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
@@ -750,8 +949,12 @@
       <c r="D16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
@@ -760,24 +963,40 @@
       <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="3:6" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6">
+      <c r="E17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="23">
         <v>15</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="3:6" s="22" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="D18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" s="22" customFormat="1" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="3:6" s="22" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="20"/>
